--- a/newsData/count_quarterly_sum.xlsx
+++ b/newsData/count_quarterly_sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limul\Desktop\College\2_grade\2_semester\computational_statistics\teamProject\2024-2-CSP\newsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B0FF5-F8DD-4840-B7CB-9F3C283B57B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EC695A-539E-4012-8893-22F1E81F2161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,416 +226,419 @@
     <t>2008년 1분기</t>
   </si>
   <si>
+    <t>2008년 2분기</t>
+  </si>
+  <si>
+    <t>2008년 3분기</t>
+  </si>
+  <si>
+    <t>2008-07-01 - 2008-09-30</t>
+  </si>
+  <si>
+    <t>2008년 4분기</t>
+  </si>
+  <si>
+    <t>2008-10-01 - 2008-12-31</t>
+  </si>
+  <si>
+    <t>2009년 1분기</t>
+  </si>
+  <si>
+    <t>2009-01-01 - 2009-03-31</t>
+  </si>
+  <si>
+    <t>2009년 2분기</t>
+  </si>
+  <si>
+    <t>2009-04-01 - 2009-06-30</t>
+  </si>
+  <si>
+    <t>2009년 3분기</t>
+  </si>
+  <si>
+    <t>2009-07-01 - 2009-09-30</t>
+  </si>
+  <si>
+    <t>2009년 4분기</t>
+  </si>
+  <si>
+    <t>2009-10-01 - 2009-12-31</t>
+  </si>
+  <si>
+    <t>2010년 1분기</t>
+  </si>
+  <si>
+    <t>2010-01-01 - 2010-03-31</t>
+  </si>
+  <si>
+    <t>2010년 2분기</t>
+  </si>
+  <si>
+    <t>2010-04-01 - 2010-06-30</t>
+  </si>
+  <si>
+    <t>2010년 3분기</t>
+  </si>
+  <si>
+    <t>2010-07-01 - 2010-09-30</t>
+  </si>
+  <si>
+    <t>2010년 4분기</t>
+  </si>
+  <si>
+    <t>2010-10-01 - 2010-12-31</t>
+  </si>
+  <si>
+    <t>2011년 1분기</t>
+  </si>
+  <si>
+    <t>2011-01-01 - 2011-03-31</t>
+  </si>
+  <si>
+    <t>2011년 2분기</t>
+  </si>
+  <si>
+    <t>2011-04-01 - 2011-06-30</t>
+  </si>
+  <si>
+    <t>2011년 3분기</t>
+  </si>
+  <si>
+    <t>2011-07-01 - 2011-09-30</t>
+  </si>
+  <si>
+    <t>2011년 4분기</t>
+  </si>
+  <si>
+    <t>2011-10-01 - 2011-12-31</t>
+  </si>
+  <si>
+    <t>2012년 1분기</t>
+  </si>
+  <si>
+    <t>2012-01-01 - 2012-03-31</t>
+  </si>
+  <si>
+    <t>2012년 2분기</t>
+  </si>
+  <si>
+    <t>2012-04-01 - 2012-06-30</t>
+  </si>
+  <si>
+    <t>2012년 3분기</t>
+  </si>
+  <si>
+    <t>2012-07-01 - 2012-09-30</t>
+  </si>
+  <si>
+    <t>2012년 4분기</t>
+  </si>
+  <si>
+    <t>2012-10-01 - 2012-12-31</t>
+  </si>
+  <si>
+    <t>2013년 1분기</t>
+  </si>
+  <si>
+    <t>2013-01-01 - 2013-03-31</t>
+  </si>
+  <si>
+    <t>2013년 2분기</t>
+  </si>
+  <si>
+    <t>2013-04-01 - 2013-06-30</t>
+  </si>
+  <si>
+    <t>2013년 3분기</t>
+  </si>
+  <si>
+    <t>2013-07-01 - 2013-09-30</t>
+  </si>
+  <si>
+    <t>2013년 4분기</t>
+  </si>
+  <si>
+    <t>2013-10-01 - 2013-12-31</t>
+  </si>
+  <si>
+    <t>2014년 1분기</t>
+  </si>
+  <si>
+    <t>2014-01-01 - 2014-03-31</t>
+  </si>
+  <si>
+    <t>2014년 2분기</t>
+  </si>
+  <si>
+    <t>2014-04-01 - 2014-06-30</t>
+  </si>
+  <si>
+    <t>2014년 3분기</t>
+  </si>
+  <si>
+    <t>2014-07-01 - 2014-09-30</t>
+  </si>
+  <si>
+    <t>2014년 4분기</t>
+  </si>
+  <si>
+    <t>2014-10-01 - 2014-12-31</t>
+  </si>
+  <si>
+    <t>2015년 1분기</t>
+  </si>
+  <si>
+    <t>2015-01-01 - 2015-03-31</t>
+  </si>
+  <si>
+    <t>2015년 2분기</t>
+  </si>
+  <si>
+    <t>2015-04-01 - 2015-06-30</t>
+  </si>
+  <si>
+    <t>2015년 3분기</t>
+  </si>
+  <si>
+    <t>2015-07-01 - 2015-09-30</t>
+  </si>
+  <si>
+    <t>2015년 4분기</t>
+  </si>
+  <si>
+    <t>2015-10-01 - 2015-12-31</t>
+  </si>
+  <si>
+    <t>2016년 1분기</t>
+  </si>
+  <si>
+    <t>2016-01-01 - 2016-03-31</t>
+  </si>
+  <si>
+    <t>2016년 2분기</t>
+  </si>
+  <si>
+    <t>2016-04-01 - 2016-06-30</t>
+  </si>
+  <si>
+    <t>2016년 3분기</t>
+  </si>
+  <si>
+    <t>2016-07-01 - 2016-09-30</t>
+  </si>
+  <si>
+    <t>2016년 4분기</t>
+  </si>
+  <si>
+    <t>2016-10-01 - 2016-12-31</t>
+  </si>
+  <si>
+    <t>2017년 1분기</t>
+  </si>
+  <si>
+    <t>2017-01-01 - 2017-03-31</t>
+  </si>
+  <si>
+    <t>2017년 2분기</t>
+  </si>
+  <si>
+    <t>2017-04-01 - 2017-06-30</t>
+  </si>
+  <si>
+    <t>2017년 3분기</t>
+  </si>
+  <si>
+    <t>2017-07-01 - 2017-09-30</t>
+  </si>
+  <si>
+    <t>2017년 4분기</t>
+  </si>
+  <si>
+    <t>2017-10-01 - 2017-12-31</t>
+  </si>
+  <si>
+    <t>2018년 1분기</t>
+  </si>
+  <si>
+    <t>2018-01-01 - 2018-03-31</t>
+  </si>
+  <si>
+    <t>2018년 2분기</t>
+  </si>
+  <si>
+    <t>2018-04-01 - 2018-06-30</t>
+  </si>
+  <si>
+    <t>2018년 3분기</t>
+  </si>
+  <si>
+    <t>2018-07-01 - 2018-09-30</t>
+  </si>
+  <si>
+    <t>2018년 4분기</t>
+  </si>
+  <si>
+    <t>2018-10-01 - 2018-12-31</t>
+  </si>
+  <si>
+    <t>2019년 1분기</t>
+  </si>
+  <si>
+    <t>2019-01-01 - 2019-03-31</t>
+  </si>
+  <si>
+    <t>2019년 2분기</t>
+  </si>
+  <si>
+    <t>2019-04-01 - 2019-06-30</t>
+  </si>
+  <si>
+    <t>2019년 3분기</t>
+  </si>
+  <si>
+    <t>2019-07-01 - 2019-09-30</t>
+  </si>
+  <si>
+    <t>2019년 4분기</t>
+  </si>
+  <si>
+    <t>2019-10-01 - 2019-12-31</t>
+  </si>
+  <si>
+    <t>2020년 1분기</t>
+  </si>
+  <si>
+    <t>2020-01-01 - 2020-03-31</t>
+  </si>
+  <si>
+    <t>2020년 2분기</t>
+  </si>
+  <si>
+    <t>2020-04-01 - 2020-06-30</t>
+  </si>
+  <si>
+    <t>2020년 3분기</t>
+  </si>
+  <si>
+    <t>2020-07-01 - 2020-09-30</t>
+  </si>
+  <si>
+    <t>2020년 4분기</t>
+  </si>
+  <si>
+    <t>2020-10-01 - 2020-12-31</t>
+  </si>
+  <si>
+    <t>2021년 1분기</t>
+  </si>
+  <si>
+    <t>2021-01-01 - 2021-03-31</t>
+  </si>
+  <si>
+    <t>2021년 2분기</t>
+  </si>
+  <si>
+    <t>2021-04-01 - 2021-06-30</t>
+  </si>
+  <si>
+    <t>2021년 3분기</t>
+  </si>
+  <si>
+    <t>2021-07-01 - 2021-09-30</t>
+  </si>
+  <si>
+    <t>2021년 4분기</t>
+  </si>
+  <si>
+    <t>2021-10-01 - 2021-12-31</t>
+  </si>
+  <si>
+    <t>2022년 1분기</t>
+  </si>
+  <si>
+    <t>2022-01-01 - 2022-03-31</t>
+  </si>
+  <si>
+    <t>2022년 2분기</t>
+  </si>
+  <si>
+    <t>2022-04-01 - 2022-06-30</t>
+  </si>
+  <si>
+    <t>2022년 3분기</t>
+  </si>
+  <si>
+    <t>2022-07-01 - 2022-09-30</t>
+  </si>
+  <si>
+    <t>2022년 4분기</t>
+  </si>
+  <si>
+    <t>2022-10-01 - 2022-12-31</t>
+  </si>
+  <si>
+    <t>2023년 1분기</t>
+  </si>
+  <si>
+    <t>2023-01-01 - 2023-03-31</t>
+  </si>
+  <si>
+    <t>2023년 2분기</t>
+  </si>
+  <si>
+    <t>2023-04-01 - 2023-06-30</t>
+  </si>
+  <si>
+    <t>2023년 3분기</t>
+  </si>
+  <si>
+    <t>2023-07-01 - 2023-09-30</t>
+  </si>
+  <si>
+    <t>2023년 4분기</t>
+  </si>
+  <si>
+    <t>2023-10-01 - 2023-12-31</t>
+  </si>
+  <si>
+    <t>2024년 1분기</t>
+  </si>
+  <si>
+    <t>2024-01-01 - 2024-03-31</t>
+  </si>
+  <si>
+    <t>2024년 2분기</t>
+  </si>
+  <si>
+    <t>2024-04-01 - 2024-06-30</t>
+  </si>
+  <si>
+    <t>2024년 3분기</t>
+  </si>
+  <si>
+    <t>2024-07-01 - 2024-09-30</t>
+  </si>
+  <si>
+    <t>2024년 4분기</t>
+  </si>
+  <si>
     <t>2008-01-01 - 2008-03-31</t>
-  </si>
-  <si>
-    <t>2008년 2분기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2008-04-01 - 2008-06-30</t>
-  </si>
-  <si>
-    <t>2008년 3분기</t>
-  </si>
-  <si>
-    <t>2008-07-01 - 2008-09-30</t>
-  </si>
-  <si>
-    <t>2008년 4분기</t>
-  </si>
-  <si>
-    <t>2008-10-01 - 2008-12-31</t>
-  </si>
-  <si>
-    <t>2009년 1분기</t>
-  </si>
-  <si>
-    <t>2009-01-01 - 2009-03-31</t>
-  </si>
-  <si>
-    <t>2009년 2분기</t>
-  </si>
-  <si>
-    <t>2009-04-01 - 2009-06-30</t>
-  </si>
-  <si>
-    <t>2009년 3분기</t>
-  </si>
-  <si>
-    <t>2009-07-01 - 2009-09-30</t>
-  </si>
-  <si>
-    <t>2009년 4분기</t>
-  </si>
-  <si>
-    <t>2009-10-01 - 2009-12-31</t>
-  </si>
-  <si>
-    <t>2010년 1분기</t>
-  </si>
-  <si>
-    <t>2010-01-01 - 2010-03-31</t>
-  </si>
-  <si>
-    <t>2010년 2분기</t>
-  </si>
-  <si>
-    <t>2010-04-01 - 2010-06-30</t>
-  </si>
-  <si>
-    <t>2010년 3분기</t>
-  </si>
-  <si>
-    <t>2010-07-01 - 2010-09-30</t>
-  </si>
-  <si>
-    <t>2010년 4분기</t>
-  </si>
-  <si>
-    <t>2010-10-01 - 2010-12-31</t>
-  </si>
-  <si>
-    <t>2011년 1분기</t>
-  </si>
-  <si>
-    <t>2011-01-01 - 2011-03-31</t>
-  </si>
-  <si>
-    <t>2011년 2분기</t>
-  </si>
-  <si>
-    <t>2011-04-01 - 2011-06-30</t>
-  </si>
-  <si>
-    <t>2011년 3분기</t>
-  </si>
-  <si>
-    <t>2011-07-01 - 2011-09-30</t>
-  </si>
-  <si>
-    <t>2011년 4분기</t>
-  </si>
-  <si>
-    <t>2011-10-01 - 2011-12-31</t>
-  </si>
-  <si>
-    <t>2012년 1분기</t>
-  </si>
-  <si>
-    <t>2012-01-01 - 2012-03-31</t>
-  </si>
-  <si>
-    <t>2012년 2분기</t>
-  </si>
-  <si>
-    <t>2012-04-01 - 2012-06-30</t>
-  </si>
-  <si>
-    <t>2012년 3분기</t>
-  </si>
-  <si>
-    <t>2012-07-01 - 2012-09-30</t>
-  </si>
-  <si>
-    <t>2012년 4분기</t>
-  </si>
-  <si>
-    <t>2012-10-01 - 2012-12-31</t>
-  </si>
-  <si>
-    <t>2013년 1분기</t>
-  </si>
-  <si>
-    <t>2013-01-01 - 2013-03-31</t>
-  </si>
-  <si>
-    <t>2013년 2분기</t>
-  </si>
-  <si>
-    <t>2013-04-01 - 2013-06-30</t>
-  </si>
-  <si>
-    <t>2013년 3분기</t>
-  </si>
-  <si>
-    <t>2013-07-01 - 2013-09-30</t>
-  </si>
-  <si>
-    <t>2013년 4분기</t>
-  </si>
-  <si>
-    <t>2013-10-01 - 2013-12-31</t>
-  </si>
-  <si>
-    <t>2014년 1분기</t>
-  </si>
-  <si>
-    <t>2014-01-01 - 2014-03-31</t>
-  </si>
-  <si>
-    <t>2014년 2분기</t>
-  </si>
-  <si>
-    <t>2014-04-01 - 2014-06-30</t>
-  </si>
-  <si>
-    <t>2014년 3분기</t>
-  </si>
-  <si>
-    <t>2014-07-01 - 2014-09-30</t>
-  </si>
-  <si>
-    <t>2014년 4분기</t>
-  </si>
-  <si>
-    <t>2014-10-01 - 2014-12-31</t>
-  </si>
-  <si>
-    <t>2015년 1분기</t>
-  </si>
-  <si>
-    <t>2015-01-01 - 2015-03-31</t>
-  </si>
-  <si>
-    <t>2015년 2분기</t>
-  </si>
-  <si>
-    <t>2015-04-01 - 2015-06-30</t>
-  </si>
-  <si>
-    <t>2015년 3분기</t>
-  </si>
-  <si>
-    <t>2015-07-01 - 2015-09-30</t>
-  </si>
-  <si>
-    <t>2015년 4분기</t>
-  </si>
-  <si>
-    <t>2015-10-01 - 2015-12-31</t>
-  </si>
-  <si>
-    <t>2016년 1분기</t>
-  </si>
-  <si>
-    <t>2016-01-01 - 2016-03-31</t>
-  </si>
-  <si>
-    <t>2016년 2분기</t>
-  </si>
-  <si>
-    <t>2016-04-01 - 2016-06-30</t>
-  </si>
-  <si>
-    <t>2016년 3분기</t>
-  </si>
-  <si>
-    <t>2016-07-01 - 2016-09-30</t>
-  </si>
-  <si>
-    <t>2016년 4분기</t>
-  </si>
-  <si>
-    <t>2016-10-01 - 2016-12-31</t>
-  </si>
-  <si>
-    <t>2017년 1분기</t>
-  </si>
-  <si>
-    <t>2017-01-01 - 2017-03-31</t>
-  </si>
-  <si>
-    <t>2017년 2분기</t>
-  </si>
-  <si>
-    <t>2017-04-01 - 2017-06-30</t>
-  </si>
-  <si>
-    <t>2017년 3분기</t>
-  </si>
-  <si>
-    <t>2017-07-01 - 2017-09-30</t>
-  </si>
-  <si>
-    <t>2017년 4분기</t>
-  </si>
-  <si>
-    <t>2017-10-01 - 2017-12-31</t>
-  </si>
-  <si>
-    <t>2018년 1분기</t>
-  </si>
-  <si>
-    <t>2018-01-01 - 2018-03-31</t>
-  </si>
-  <si>
-    <t>2018년 2분기</t>
-  </si>
-  <si>
-    <t>2018-04-01 - 2018-06-30</t>
-  </si>
-  <si>
-    <t>2018년 3분기</t>
-  </si>
-  <si>
-    <t>2018-07-01 - 2018-09-30</t>
-  </si>
-  <si>
-    <t>2018년 4분기</t>
-  </si>
-  <si>
-    <t>2018-10-01 - 2018-12-31</t>
-  </si>
-  <si>
-    <t>2019년 1분기</t>
-  </si>
-  <si>
-    <t>2019-01-01 - 2019-03-31</t>
-  </si>
-  <si>
-    <t>2019년 2분기</t>
-  </si>
-  <si>
-    <t>2019-04-01 - 2019-06-30</t>
-  </si>
-  <si>
-    <t>2019년 3분기</t>
-  </si>
-  <si>
-    <t>2019-07-01 - 2019-09-30</t>
-  </si>
-  <si>
-    <t>2019년 4분기</t>
-  </si>
-  <si>
-    <t>2019-10-01 - 2019-12-31</t>
-  </si>
-  <si>
-    <t>2020년 1분기</t>
-  </si>
-  <si>
-    <t>2020-01-01 - 2020-03-31</t>
-  </si>
-  <si>
-    <t>2020년 2분기</t>
-  </si>
-  <si>
-    <t>2020-04-01 - 2020-06-30</t>
-  </si>
-  <si>
-    <t>2020년 3분기</t>
-  </si>
-  <si>
-    <t>2020-07-01 - 2020-09-30</t>
-  </si>
-  <si>
-    <t>2020년 4분기</t>
-  </si>
-  <si>
-    <t>2020-10-01 - 2020-12-31</t>
-  </si>
-  <si>
-    <t>2021년 1분기</t>
-  </si>
-  <si>
-    <t>2021-01-01 - 2021-03-31</t>
-  </si>
-  <si>
-    <t>2021년 2분기</t>
-  </si>
-  <si>
-    <t>2021-04-01 - 2021-06-30</t>
-  </si>
-  <si>
-    <t>2021년 3분기</t>
-  </si>
-  <si>
-    <t>2021-07-01 - 2021-09-30</t>
-  </si>
-  <si>
-    <t>2021년 4분기</t>
-  </si>
-  <si>
-    <t>2021-10-01 - 2021-12-31</t>
-  </si>
-  <si>
-    <t>2022년 1분기</t>
-  </si>
-  <si>
-    <t>2022-01-01 - 2022-03-31</t>
-  </si>
-  <si>
-    <t>2022년 2분기</t>
-  </si>
-  <si>
-    <t>2022-04-01 - 2022-06-30</t>
-  </si>
-  <si>
-    <t>2022년 3분기</t>
-  </si>
-  <si>
-    <t>2022-07-01 - 2022-09-30</t>
-  </si>
-  <si>
-    <t>2022년 4분기</t>
-  </si>
-  <si>
-    <t>2022-10-01 - 2022-12-31</t>
-  </si>
-  <si>
-    <t>2023년 1분기</t>
-  </si>
-  <si>
-    <t>2023-01-01 - 2023-03-31</t>
-  </si>
-  <si>
-    <t>2023년 2분기</t>
-  </si>
-  <si>
-    <t>2023-04-01 - 2023-06-30</t>
-  </si>
-  <si>
-    <t>2023년 3분기</t>
-  </si>
-  <si>
-    <t>2023-07-01 - 2023-09-30</t>
-  </si>
-  <si>
-    <t>2023년 4분기</t>
-  </si>
-  <si>
-    <t>2023-10-01 - 2023-12-31</t>
-  </si>
-  <si>
-    <t>2024년 1분기</t>
-  </si>
-  <si>
-    <t>2024-01-01 - 2024-03-31</t>
-  </si>
-  <si>
-    <t>2024년 2분기</t>
-  </si>
-  <si>
-    <t>2024-04-01 - 2024-06-30</t>
-  </si>
-  <si>
-    <t>2024년 3분기</t>
-  </si>
-  <si>
-    <t>2024-07-01 - 2024-09-30</t>
-  </si>
-  <si>
-    <t>2024년 4분기</t>
-  </si>
-  <si>
-    <t>2024-10-01 - 2024-12-31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-10-01 - 2024-11-06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +655,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -693,11 +704,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1002,14 +1018,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1030,6 +1047,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="2">
+        <v>382175</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1038,6 +1058,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="2">
+        <v>424170</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1046,6 +1069,9 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2">
+        <v>432217</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1054,6 +1080,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="2">
+        <v>463367</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1062,6 +1091,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="2">
+        <v>470032</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1070,6 +1102,9 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="2">
+        <v>462156</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1078,6 +1113,9 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="2">
+        <v>455819</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1086,6 +1124,9 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="2">
+        <v>455470</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1094,6 +1135,9 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="C10" s="2">
+        <v>483947</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1102,6 +1146,9 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11" s="2">
+        <v>509166</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1110,6 +1157,9 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="C12" s="2">
+        <v>500945</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1118,6 +1168,9 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
+      <c r="C13" s="2">
+        <v>505240</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1126,6 +1179,9 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
+      <c r="C14" s="2">
+        <v>460741</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1134,6 +1190,9 @@
       <c r="B15" t="s">
         <v>30</v>
       </c>
+      <c r="C15" s="2">
+        <v>475651</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1142,685 +1201,943 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>477887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>518795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>508120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>522565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>499778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>525767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>493165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>508786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <v>490002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <v>511284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
+        <v>457799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <v>468661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <v>457785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="2">
+        <v>458914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
+        <v>463816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <v>500429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <v>495999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="2">
+        <v>535529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
       <c r="B34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="4">
+        <v>603275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="4">
+        <v>708494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C36" s="4">
+        <v>754808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C37" s="4">
+        <v>823499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C38" s="4">
+        <v>868570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C39" s="4">
+        <v>897353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C40" s="4">
+        <v>958274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C41" s="4">
+        <v>961618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C42" s="4">
+        <v>971840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>83</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C43" s="4">
+        <v>1055867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>85</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C44" s="3">
+        <v>1056052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>87</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C45" s="4">
+        <v>1132690</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C46" s="3">
+        <v>1116808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="C47" s="4">
+        <v>1130481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>93</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C48" s="4">
+        <v>1105707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>95</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C49" s="4">
+        <v>1192113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>97</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C50" s="4">
+        <v>1164645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>99</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C51" s="4">
+        <v>1148823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>101</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C52" s="4">
+        <v>801926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C53" s="4">
+        <v>1210454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>105</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C54" s="4">
+        <v>1170947</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>107</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C55" s="4">
+        <v>1245174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>109</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C56" s="4">
+        <v>1228815</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>111</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C57" s="4">
+        <v>1367821</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>113</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C58" s="4">
+        <v>1367615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>115</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C59" s="4">
+        <v>1293887</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>117</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="C60" s="3">
+        <v>1279518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>119</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="C61" s="3">
+        <v>1370438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>121</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C62" s="3">
+        <v>1310784</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>123</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C63" s="3">
+        <v>1420872</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>125</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C64" s="4">
+        <v>1463663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>127</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="C65" s="4">
+        <v>1338217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>129</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C66" s="3">
+        <v>1295551</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>131</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C67" s="3">
+        <v>1207514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>133</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C68" s="3">
+        <v>1184815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>135</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="C69" s="3">
+        <v>1250406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>137</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="C70" s="3">
+        <v>1258339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>139</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C71" s="3">
+        <v>1240205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="C72" s="3">
+        <v>1237421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>143</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="C73" s="3">
+        <v>1204544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>145</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C74" s="3">
+        <v>1292328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>147</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C75" s="3">
+        <v>1289634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>149</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C76" s="3">
+        <v>1235981</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>151</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C77" s="3">
+        <v>1348056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>153</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C78" s="3">
+        <v>1280445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>155</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C79" s="3">
+        <v>1411693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>157</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="C80" s="3">
+        <v>1417046</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>159</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C81" s="3">
+        <v>1480073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>161</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="C82" s="3">
+        <v>1473758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>163</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="C83" s="3">
+        <v>1405166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>165</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="C84" s="3">
+        <v>1384959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>167</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="C85" s="3">
+        <v>1402738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>169</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="C86" s="3">
+        <v>1355814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>171</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="C87" s="3">
+        <v>1331655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>173</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="C88" s="3">
+        <v>1230488</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>175</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="C89" s="3">
+        <v>1273943</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>177</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="C90" s="3">
+        <v>1224623</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>179</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="C91" s="3">
+        <v>1266871</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>181</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="C92" s="3">
+        <v>1289745</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>183</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="C93" s="3">
+        <v>1291758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>185</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="C94" s="3">
+        <v>1259781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>187</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="C95" s="3">
+        <v>1316108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>189</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="C96" s="3">
+        <v>1348324</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>191</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="C97" s="3">
+        <v>1367792</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>193</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="C98" s="3">
+        <v>1359679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>195</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="C99" s="3">
+        <v>1312636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>197</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="C100" s="3">
+        <v>1414839</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>199</v>
-      </c>
-      <c r="B100" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>201</v>
       </c>
       <c r="B101" t="s">
         <v>202</v>
+      </c>
+      <c r="C101" s="3">
+        <v>570237</v>
       </c>
     </row>
   </sheetData>
